--- a/output/fit_clients/fit_round_249.xlsx
+++ b/output/fit_clients/fit_round_249.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1728520095.678899</v>
+        <v>1554366112.542892</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07031188027284475</v>
+        <v>0.07717042380320051</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03758354865864613</v>
+        <v>0.02926689985767596</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>864260006.942048</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1920255865.291397</v>
+        <v>1975467014.05137</v>
       </c>
       <c r="F3" t="n">
-        <v>0.112222239678546</v>
+        <v>0.1404301804963399</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04390478892360736</v>
+        <v>0.04472203650134353</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>960127960.3461426</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3809347495.856515</v>
+        <v>4626142857.146281</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1082766181414373</v>
+        <v>0.1056364112316203</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03657147995124068</v>
+        <v>0.02962008315261061</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>90</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1904673748.590542</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3436024547.54776</v>
+        <v>3224007850.06146</v>
       </c>
       <c r="F5" t="n">
-        <v>0.099373661198377</v>
+        <v>0.09210433978839271</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03478539994188684</v>
+        <v>0.03217665214759455</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>97</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1718012314.801621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2047724856.775903</v>
+        <v>2590289426.688033</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1320921370687794</v>
+        <v>0.09575002672581594</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04148672088410767</v>
+        <v>0.05281004479198078</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>40</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1023862452.81093</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2880045828.137301</v>
+        <v>2257847526.60482</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06670947250063225</v>
+        <v>0.08864070404375307</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04108538167884888</v>
+        <v>0.04546189856441718</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>78</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1440022890.474539</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3899779517.264049</v>
+        <v>3518286961.777593</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2160432373600924</v>
+        <v>0.1364838619964482</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02359936322791595</v>
+        <v>0.02694627524614946</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>79</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1949889908.124871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2119760489.867334</v>
+        <v>1479185581.844135</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1330814971083523</v>
+        <v>0.1711668834704332</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02523341422025037</v>
+        <v>0.03674214828991903</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1059880254.924911</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3709464071.764525</v>
+        <v>5380933697.069049</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1512573814884705</v>
+        <v>0.1979812516479937</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05441195408922069</v>
+        <v>0.03771077882922799</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>105</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1854732035.245202</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3909940169.310572</v>
+        <v>3901008654.495547</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1890042630544826</v>
+        <v>0.1821837123638015</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03174295117750015</v>
+        <v>0.04917227058967363</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>103</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1954970091.048294</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2820057457.798695</v>
+        <v>3020194666.938458</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1352121444048103</v>
+        <v>0.1198766755456245</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03637717530422207</v>
+        <v>0.03820703160822823</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>83</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1410028730.436374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3684580366.948357</v>
+        <v>3705329448.293678</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08414579624445394</v>
+        <v>0.07481229223057345</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02207241963454021</v>
+        <v>0.02304164159785774</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>83</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1842290254.419182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3266800758.9537</v>
+        <v>3133586768.690112</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1874677799485935</v>
+        <v>0.1344810460013739</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03997660331019998</v>
+        <v>0.04308161349698102</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>80</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1633400394.594418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1390550004.331263</v>
+        <v>1625070648.122216</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07420863856626168</v>
+        <v>0.06669503410798806</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04551403915460457</v>
+        <v>0.03578187391145723</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>695275062.8451085</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2572136782.982459</v>
+        <v>2849440801.264615</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1069363672793412</v>
+        <v>0.08177832973953043</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05034416617972368</v>
+        <v>0.05088313409316206</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>46</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1286068415.858097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4903190438.899031</v>
+        <v>4398442584.259997</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1385332909388853</v>
+        <v>0.165697150382263</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04970724159676763</v>
+        <v>0.05038491295883227</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>73</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2451595209.347821</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3521185398.63967</v>
+        <v>3537298205.588538</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1214962449733854</v>
+        <v>0.1202591018397749</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03262879490533808</v>
+        <v>0.0243269610996034</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>81</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1760592691.837961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>835640920.6659313</v>
+        <v>880809795.6193177</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1697543938930055</v>
+        <v>0.1744378433441134</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0250140572670875</v>
+        <v>0.02260713535617432</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>417820449.5519195</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2490702036.62464</v>
+        <v>1753755674.451055</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1255418430921974</v>
+        <v>0.1406198606694477</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02201551948598423</v>
+        <v>0.02369824088908636</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>36</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1245350992.394507</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1677087613.853379</v>
+        <v>1963439891.838775</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07371928040218535</v>
+        <v>0.07075209660630336</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0342960535524001</v>
+        <v>0.04489342320823337</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>19</v>
-      </c>
-      <c r="J21" t="n">
-        <v>838543873.7591201</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3207729584.936587</v>
+        <v>3639768839.686662</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09346768412780632</v>
+        <v>0.1372584396345543</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04062620914711215</v>
+        <v>0.04991870133538584</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>69</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1603864841.553798</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1160514943.616612</v>
+        <v>1142128901.194749</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1486564090196851</v>
+        <v>0.165420247170701</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03959047591014823</v>
+        <v>0.03914960534567252</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>580257514.9412259</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3312746909.221373</v>
+        <v>3930337987.430045</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1006261529396586</v>
+        <v>0.1410924184912065</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02434614677689413</v>
+        <v>0.03503360494964305</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>73</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1656373468.792721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>940992822.4139098</v>
+        <v>1313165283.310772</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0880522345578168</v>
+        <v>0.107542067176409</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02085332546941115</v>
+        <v>0.02079996129707829</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>470496488.7558568</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1235896756.9888</v>
+        <v>1249986974.895768</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1023308227792582</v>
+        <v>0.07549224158098949</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03513431489999288</v>
+        <v>0.02954239909462644</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>617948408.2899348</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4258425903.536896</v>
+        <v>4456502392.09764</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0995884445324936</v>
+        <v>0.1190460797333193</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02332127866292629</v>
+        <v>0.02640671020294468</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>56</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2129212949.063406</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2544843672.805426</v>
+        <v>3548518545.106108</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1320446269673339</v>
+        <v>0.125400615496209</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0346810826157079</v>
+        <v>0.04944959857487081</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>82</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1272421808.102027</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5066018956.104195</v>
+        <v>5517121638.166498</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1223243981334904</v>
+        <v>0.1096967869532646</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04080279821116357</v>
+        <v>0.04269595096545214</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>110</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2533009421.00043</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2393615037.546545</v>
+        <v>1745871512.938702</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1138497367820561</v>
+        <v>0.1161069270328741</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02898860018193328</v>
+        <v>0.03391806108717341</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1196807601.038152</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1178713972.43594</v>
+        <v>1306824987.781934</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1083338699628894</v>
+        <v>0.09680897218675245</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04489375631337898</v>
+        <v>0.04063745159470942</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>589356942.6921563</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1406844111.324652</v>
+        <v>1522490166.787066</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1137515523281558</v>
+        <v>0.1003903664576148</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03126551838509548</v>
+        <v>0.02502925799967241</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>703422104.7088376</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2061503212.904386</v>
+        <v>2589626963.757915</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2051470265395523</v>
+        <v>0.1932958937401294</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04248465551378855</v>
+        <v>0.04580441527561182</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>77</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1030751681.986832</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1536747777.042305</v>
+        <v>1454521144.240801</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08756853220054263</v>
+        <v>0.09603712804382479</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02110389638048749</v>
+        <v>0.02512793647001325</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>768373838.3251547</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1289139296.749935</v>
+        <v>882528764.6610893</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08710820348967549</v>
+        <v>0.0977677106635893</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04456752866347984</v>
+        <v>0.03582190507684611</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>644569603.5459337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2880341889.604615</v>
+        <v>2036888519.381812</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1628551089396582</v>
+        <v>0.1239618433289994</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02409862430202357</v>
+        <v>0.02411015048511088</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>62</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1440170936.308699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2657644235.926019</v>
+        <v>1903588886.831359</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06909328395595497</v>
+        <v>0.08303353820976359</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0305250574121355</v>
+        <v>0.02597882012125209</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>64</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1328822235.693052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1398538650.051321</v>
+        <v>1366005342.32518</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08832009810040087</v>
+        <v>0.1192569502674664</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02480933263820601</v>
+        <v>0.03912198795915121</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>699269388.6072108</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1494977450.056399</v>
+        <v>2097819134.231047</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1642300481567306</v>
+        <v>0.1189165994400144</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02803377458556489</v>
+        <v>0.03141572307795632</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>747488796.2493716</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1365807848.650299</v>
+        <v>1226565823.151211</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1044716923581471</v>
+        <v>0.1031550782306717</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05561379639436336</v>
+        <v>0.03660548115703805</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>682903924.1125808</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2898247404.225833</v>
+        <v>1867204076.814246</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1005997881956958</v>
+        <v>0.1156603957415713</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04398346990006808</v>
+        <v>0.02922730314738603</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>59</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1449123688.439874</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3803862921.938169</v>
+        <v>3686252045.13098</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08293579652015443</v>
+        <v>0.09496944773455714</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03041975213518576</v>
+        <v>0.03294106513466095</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>83</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1901931476.736868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2201424799.898519</v>
+        <v>1858821113.734174</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1431648697241867</v>
+        <v>0.1846919930791704</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02142960733938118</v>
+        <v>0.02030901381019543</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>88</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1100712478.639401</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1587739515.324861</v>
+        <v>1570115958.555908</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07413470453697683</v>
+        <v>0.07134119609613229</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0292453515941593</v>
+        <v>0.02658788212702251</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>793869781.7379429</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2134466557.916976</v>
+        <v>2164819437.06758</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1492208549913789</v>
+        <v>0.1209257901664592</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05170598369382218</v>
+        <v>0.03762529742363212</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1067233283.40242</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4908250401.715091</v>
+        <v>5348699038.492275</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1734185700611365</v>
+        <v>0.1187884926347532</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04102942803818731</v>
+        <v>0.05127892972156807</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>88</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2454125222.393867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4149733460.475184</v>
+        <v>4716534599.651357</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1338018575351339</v>
+        <v>0.1807204270035513</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04618053693669505</v>
+        <v>0.05779651075470546</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>67</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2074866737.882053</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4340505505.770288</v>
+        <v>4211930879.506711</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08615600202781754</v>
+        <v>0.07597939425757368</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02483589856000641</v>
+        <v>0.02574935678461428</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>82</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2170252767.436413</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1982288940.07419</v>
+        <v>1290147619.439759</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1229284156330032</v>
+        <v>0.1708942279409524</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03771074948157635</v>
+        <v>0.0313481908771131</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>991144427.0587776</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2731905737.750239</v>
+        <v>4229519502.882265</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1345861422765335</v>
+        <v>0.1497970186660495</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05346626042796139</v>
+        <v>0.03281706145902334</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>85</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1365952947.772725</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1142233003.55756</v>
+        <v>1505031481.755513</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1219712057865347</v>
+        <v>0.1629043200900346</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04303625439549395</v>
+        <v>0.04968891854482081</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>571116562.6756721</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4374123986.539824</v>
+        <v>3789687141.460304</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1310244795291538</v>
+        <v>0.1171274980054415</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03810262880747459</v>
+        <v>0.04684976105043265</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>103</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2187062027.724082</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3583765978.953839</v>
+        <v>3003430875.031372</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1674634999530138</v>
+        <v>0.1522942791591633</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02854493605246113</v>
+        <v>0.02890106543493616</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>72</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1791882981.61621</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3866087599.535328</v>
+        <v>3775867127.115155</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1135715450641634</v>
+        <v>0.169068672169084</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03373581134117469</v>
+        <v>0.05291232300425759</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>81</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1933043853.325055</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3142334308.261961</v>
+        <v>3534311729.560406</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1866604114401813</v>
+        <v>0.200352377213908</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02083991503339468</v>
+        <v>0.03000269061957748</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1571167091.169564</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1485899792.105207</v>
+        <v>1546995038.005928</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1464149926835643</v>
+        <v>0.1347627681394177</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04486416181366105</v>
+        <v>0.04633229235299592</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>742949940.3638698</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3431583680.717527</v>
+        <v>3992832273.304698</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1200008364110062</v>
+        <v>0.1178090996490095</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01824214200988866</v>
+        <v>0.01992815194782032</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>79</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1715791880.987318</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1484710786.186477</v>
+        <v>1783375251.863097</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1885187740154235</v>
+        <v>0.1242597980140411</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02882827130738469</v>
+        <v>0.0358546054115346</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>742355425.6292104</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4526893496.294518</v>
+        <v>3907760629.546554</v>
       </c>
       <c r="F59" t="n">
-        <v>0.110225670826807</v>
+        <v>0.1268042251435943</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04091673694968478</v>
+        <v>0.03441341169303456</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>67</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2263446698.676724</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3599276614.736621</v>
+        <v>3582712546.154111</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1319853539044395</v>
+        <v>0.1575640270404014</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02660552994095493</v>
+        <v>0.02383155291226785</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>78</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1799638440.570896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2482312985.091916</v>
+        <v>3120871181.695073</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1101184547702672</v>
+        <v>0.1233909135804571</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02854373539486868</v>
+        <v>0.02739108777922673</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>88</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1241156521.824591</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1857848933.891398</v>
+        <v>2116861490.709931</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1325581104522327</v>
+        <v>0.1920309935855668</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04877121658633557</v>
+        <v>0.04264888798622624</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>928924503.7040303</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5365080499.35879</v>
+        <v>4880205032.949093</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0931510533552125</v>
+        <v>0.06536243569099902</v>
       </c>
       <c r="G63" t="n">
-        <v>0.042172670201712</v>
+        <v>0.04664868936050139</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>71</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2682540251.159808</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3345280462.0555</v>
+        <v>4877957435.208295</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1871275691432082</v>
+        <v>0.1609178475648405</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02511496012952311</v>
+        <v>0.03003279919730562</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>77</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1672640220.832165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5660262735.630774</v>
+        <v>5873653824.538377</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1111879093170468</v>
+        <v>0.1593370926425658</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02404016633556455</v>
+        <v>0.02725834787203188</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>90</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2830131287.304294</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4426536990.656597</v>
+        <v>5176864527.629259</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1024236692061275</v>
+        <v>0.1269655596722132</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03163909583555338</v>
+        <v>0.03547515531798246</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>72</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2213268491.728107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3122123853.494009</v>
+        <v>2867954323.465279</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06424601830910093</v>
+        <v>0.06530629244128593</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04167163007495184</v>
+        <v>0.04475246815735277</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>82</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1561061934.632766</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5228482840.843524</v>
+        <v>6044500188.729531</v>
       </c>
       <c r="F68" t="n">
-        <v>0.102175677893984</v>
+        <v>0.1113251257877377</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03613872429706067</v>
+        <v>0.03962991883395421</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>79</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2614241490.646798</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1527706831.245696</v>
+        <v>1867804340.094423</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1693650018798284</v>
+        <v>0.1518381529267616</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05229998407372149</v>
+        <v>0.05059260886053158</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>763853359.4797733</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2247121938.776311</v>
+        <v>3136627507.505329</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09031457921438349</v>
+        <v>0.07206604646947463</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03983388291093146</v>
+        <v>0.04239191849924239</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>71</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1123560897.330999</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4635779203.945587</v>
+        <v>4848567378.559437</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1182315907251961</v>
+        <v>0.1586360702130868</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0242607676390155</v>
+        <v>0.02632671278822061</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>91</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2317889680.454119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2281710753.560225</v>
+        <v>2072129999.657433</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07049245486883451</v>
+        <v>0.08513549683837902</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05195212155901693</v>
+        <v>0.04372064472053986</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1140855277.678185</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2638708593.508095</v>
+        <v>3185929064.080582</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1103977152518805</v>
+        <v>0.1006013302635952</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04339448366162484</v>
+        <v>0.0498519362099673</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>95</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1319354325.815767</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3561862597.653779</v>
+        <v>2565891216.418115</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1457347375119809</v>
+        <v>0.1572137218178564</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02550940893498559</v>
+        <v>0.0225532145628793</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>85</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1780931315.64066</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2035715573.894953</v>
+        <v>2130997596.578487</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1505596919052748</v>
+        <v>0.1126872534371466</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02386803119182138</v>
+        <v>0.0238541294820293</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1017857747.727552</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4785095718.534436</v>
+        <v>4450717285.421549</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09252787874509232</v>
+        <v>0.125165347390467</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02637332005894287</v>
+        <v>0.02918854979777863</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2392547876.894437</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2240702037.572608</v>
+        <v>2281502703.847071</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1567836351191605</v>
+        <v>0.1704899795059096</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0222417480224676</v>
+        <v>0.01970913628546953</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1120351115.825709</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4177727315.757181</v>
+        <v>3262979560.055313</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1102624160870884</v>
+        <v>0.1367247317774249</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03681961603943845</v>
+        <v>0.03761392555646318</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>86</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2088863610.857037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1237190630.717556</v>
+        <v>1794959063.414796</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1305871897029132</v>
+        <v>0.1696981752686108</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03601888123943805</v>
+        <v>0.02715353461773767</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>618595303.6111784</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4450595083.697186</v>
+        <v>5370425636.355165</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08583335683804454</v>
+        <v>0.07706042198992939</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02333457498249792</v>
+        <v>0.02351824556913258</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>52</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2225297563.732337</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3796532317.375974</v>
+        <v>4728106951.286298</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1275562111530519</v>
+        <v>0.1302474406670547</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03111273027477504</v>
+        <v>0.02063197992219428</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>55</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1898266114.334708</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3555962475.529354</v>
+        <v>3848127460.092597</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2119957170477187</v>
+        <v>0.1638118229445257</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02356703793317218</v>
+        <v>0.02471054648742238</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>87</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1777981302.313659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1957772643.370018</v>
+        <v>1968907908.278723</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1164706811994286</v>
+        <v>0.1372964285530166</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04533175096347177</v>
+        <v>0.03355323303606361</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>978886301.7648757</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1713664551.759439</v>
+        <v>1706955875.632136</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09948376042374851</v>
+        <v>0.1053459109557971</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03514987773237751</v>
+        <v>0.04577512921331619</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>856832322.7975404</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2553514007.5237</v>
+        <v>2597525670.719419</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1270210609894084</v>
+        <v>0.1815892605217998</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03891878487616177</v>
+        <v>0.03899589300226249</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>94</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1276757014.613889</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1980216461.063687</v>
+        <v>2000254534.972757</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1528788975322244</v>
+        <v>0.1190475335631607</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02703586788347208</v>
+        <v>0.0180219547586139</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>32</v>
-      </c>
-      <c r="J86" t="n">
-        <v>990108255.4089518</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1036977885.837094</v>
+        <v>1193240570.038873</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1718971977054677</v>
+        <v>0.1420409944513925</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03931706375286394</v>
+        <v>0.04027930356570283</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>518488956.7254449</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2308256089.312863</v>
+        <v>3118169403.96934</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1743714034001473</v>
+        <v>0.1223720686856532</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03590243320907323</v>
+        <v>0.03619742490039991</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>98</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1154128006.743572</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2296771051.613003</v>
+        <v>2805716968.839369</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1560059560714684</v>
+        <v>0.1051736018639944</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03563019350620359</v>
+        <v>0.03670641406324985</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>84</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1148385615.469165</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1760838894.067742</v>
+        <v>2086700899.647794</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09355496702549294</v>
+        <v>0.08803312951511533</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04895873141684999</v>
+        <v>0.03403244626844291</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>880419473.4705375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1869397838.752102</v>
+        <v>1438341443.717291</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1343093599709113</v>
+        <v>0.1340625046821015</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04586790733400424</v>
+        <v>0.05660781869232371</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>934698909.0340863</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2263216611.895277</v>
+        <v>2544522243.773737</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09772442417433222</v>
+        <v>0.09266082184802796</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03168228121250479</v>
+        <v>0.0297711999858069</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>64</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1131608271.994585</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3330289313.345927</v>
+        <v>3681292265.349681</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1150633517245427</v>
+        <v>0.1022409610167159</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04553662207555292</v>
+        <v>0.0346249476558466</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>78</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1665144700.587134</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2067144013.625383</v>
+        <v>1649055969.665716</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1594834345318353</v>
+        <v>0.1557812906701405</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0297576901949411</v>
+        <v>0.0270651807645937</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1033572013.950272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2569548920.909596</v>
+        <v>2454366003.6521</v>
       </c>
       <c r="F95" t="n">
-        <v>0.106499678784798</v>
+        <v>0.09911600334811931</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0454122606577432</v>
+        <v>0.03650084896829904</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>60</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1284774491.47453</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1588450586.881014</v>
+        <v>1715664944.791348</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1136657137807655</v>
+        <v>0.1218833013582066</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03350491557965379</v>
+        <v>0.03085086335043783</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>794225324.3377892</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4315338052.378324</v>
+        <v>4144600296.514515</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1743684201285504</v>
+        <v>0.1335102854181426</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02330557337632921</v>
+        <v>0.02226027610962135</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>81</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2157669107.915717</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2618337723.469746</v>
+        <v>3409352357.966852</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08103915986175804</v>
+        <v>0.08518798551197741</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03027915659085199</v>
+        <v>0.02588160111447145</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>67</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1309168820.537953</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2149933165.729097</v>
+        <v>2227896615.355718</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1449719683936157</v>
+        <v>0.1470560331815325</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03278170344252125</v>
+        <v>0.02613064841505644</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>79</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1074966507.193388</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3332714815.523982</v>
+        <v>3326382523.25641</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1334141439299912</v>
+        <v>0.1271062618913579</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0213743454751184</v>
+        <v>0.02373401089653778</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>79</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1666357425.155363</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2396674716.262437</v>
+        <v>2724437752.39115</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1772916593922602</v>
+        <v>0.1968746339027621</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0415097304618733</v>
+        <v>0.04650365393409535</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>101</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1198337367.422682</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_249.xlsx
+++ b/output/fit_clients/fit_round_249.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1554366112.542892</v>
+        <v>1679775005.444574</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07717042380320051</v>
+        <v>0.1096378226503225</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02926689985767596</v>
+        <v>0.03261195074117693</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1975467014.05137</v>
+        <v>1749112650.656703</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1404301804963399</v>
+        <v>0.143566836645233</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04472203650134353</v>
+        <v>0.04860856714309569</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4626142857.146281</v>
+        <v>5216370573.144773</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1056364112316203</v>
+        <v>0.1322425549767428</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02962008315261061</v>
+        <v>0.0248883320317976</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3224007850.06146</v>
+        <v>3853299842.151528</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09210433978839271</v>
+        <v>0.07983543422985061</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03217665214759455</v>
+        <v>0.03464690254948823</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2590289426.688033</v>
+        <v>2272886421.492416</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09575002672581594</v>
+        <v>0.1090483704762409</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05281004479198078</v>
+        <v>0.04256968988000391</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2257847526.60482</v>
+        <v>2197549470.436295</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08864070404375307</v>
+        <v>0.07406974932407799</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04546189856441718</v>
+        <v>0.04457277330079152</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3518286961.777593</v>
+        <v>2633692164.86365</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1364838619964482</v>
+        <v>0.1476178252021981</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02694627524614946</v>
+        <v>0.03283653340145012</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1479185581.844135</v>
+        <v>1508727682.144578</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1711668834704332</v>
+        <v>0.1721760063159501</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03674214828991903</v>
+        <v>0.02890619874830793</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5380933697.069049</v>
+        <v>4087967503.127792</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1979812516479937</v>
+        <v>0.2158993554227128</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03771077882922799</v>
+        <v>0.03329474800646003</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3901008654.495547</v>
+        <v>2788520827.679725</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1821837123638015</v>
+        <v>0.1244262590391382</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04917227058967363</v>
+        <v>0.0363641689159153</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3020194666.938458</v>
+        <v>2308737924.248044</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1198766755456245</v>
+        <v>0.1204893027541385</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03820703160822823</v>
+        <v>0.04626506747522426</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3705329448.293678</v>
+        <v>3362212607.711579</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07481229223057345</v>
+        <v>0.09907737445276406</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02304164159785774</v>
+        <v>0.02441334163221315</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3133586768.690112</v>
+        <v>3570955758.625482</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1344810460013739</v>
+        <v>0.1578146172345221</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04308161349698102</v>
+        <v>0.03300089951821476</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1625070648.122216</v>
+        <v>1118896411.396022</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06669503410798806</v>
+        <v>0.1012750918339326</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03578187391145723</v>
+        <v>0.04013683254542831</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2849440801.264615</v>
+        <v>1915531527.704364</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08177832973953043</v>
+        <v>0.08777697018634827</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05088313409316206</v>
+        <v>0.04181727015920268</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4398442584.259997</v>
+        <v>3570731911.214255</v>
       </c>
       <c r="F17" t="n">
-        <v>0.165697150382263</v>
+        <v>0.1267299425059423</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05038491295883227</v>
+        <v>0.05243938667115448</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3537298205.588538</v>
+        <v>3467718586.311888</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1202591018397749</v>
+        <v>0.1127076836767781</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0243269610996034</v>
+        <v>0.02156194000426458</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>880809795.6193177</v>
+        <v>1331196698.579915</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1744378433441134</v>
+        <v>0.1676494103765854</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02260713535617432</v>
+        <v>0.0174572368926314</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1753755674.451055</v>
+        <v>2177620246.466553</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1406198606694477</v>
+        <v>0.1259551979488794</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02369824088908636</v>
+        <v>0.02356240763458706</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1963439891.838775</v>
+        <v>2628264917.118662</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07075209660630336</v>
+        <v>0.07092048779189848</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04489342320823337</v>
+        <v>0.03353538697617677</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3639768839.686662</v>
+        <v>4001040288.163956</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1372584396345543</v>
+        <v>0.1128335894434545</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04991870133538584</v>
+        <v>0.03928451045446031</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1142128901.194749</v>
+        <v>1428437592.707708</v>
       </c>
       <c r="F23" t="n">
-        <v>0.165420247170701</v>
+        <v>0.1122966347256454</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03914960534567252</v>
+        <v>0.03826725348787331</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3930337987.430045</v>
+        <v>3115865565.540451</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1410924184912065</v>
+        <v>0.1455761560381299</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03503360494964305</v>
+        <v>0.0316427604254848</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1313165283.310772</v>
+        <v>1369958470.372272</v>
       </c>
       <c r="F25" t="n">
-        <v>0.107542067176409</v>
+        <v>0.09575271810297499</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02079996129707829</v>
+        <v>0.02512192608097113</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1249986974.895768</v>
+        <v>1297577380.622905</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07549224158098949</v>
+        <v>0.09391764902182692</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02954239909462644</v>
+        <v>0.02395965568225616</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4456502392.09764</v>
+        <v>3659407720.447683</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1190460797333193</v>
+        <v>0.1190672197671671</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02640671020294468</v>
+        <v>0.0184130762950331</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3548518545.106108</v>
+        <v>3585608410.369922</v>
       </c>
       <c r="F28" t="n">
-        <v>0.125400615496209</v>
+        <v>0.118559176712012</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04944959857487081</v>
+        <v>0.03923057995949187</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5517121638.166498</v>
+        <v>3849700559.05852</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1096967869532646</v>
+        <v>0.1075381970100137</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04269595096545214</v>
+        <v>0.0301162336633595</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1745871512.938702</v>
+        <v>1919049876.632426</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1161069270328741</v>
+        <v>0.08954457882522573</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03391806108717341</v>
+        <v>0.0320366146937598</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1306824987.781934</v>
+        <v>1227639141.512508</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09680897218675245</v>
+        <v>0.1031320903424171</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04063745159470942</v>
+        <v>0.04966338111911377</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1522490166.787066</v>
+        <v>1587017332.116962</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1003903664576148</v>
+        <v>0.09813938366158828</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02502925799967241</v>
+        <v>0.0299741973197459</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2589626963.757915</v>
+        <v>2254121870.790307</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1932958937401294</v>
+        <v>0.2058707265966332</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04580441527561182</v>
+        <v>0.04733251223717636</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1454521144.240801</v>
+        <v>1123106973.747286</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09603712804382479</v>
+        <v>0.08435289739781818</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02512793647001325</v>
+        <v>0.02366982538649816</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,16 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>882528764.6610893</v>
+        <v>1023778562.239924</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0977677106635893</v>
+        <v>0.09633062567527709</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03582190507684611</v>
+        <v>0.03108508042685712</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2036888519.381812</v>
+        <v>2862893846.865174</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1239618433289994</v>
+        <v>0.1416309121321267</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02411015048511088</v>
+        <v>0.02618054285064673</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1903588886.831359</v>
+        <v>2048312651.791744</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08303353820976359</v>
+        <v>0.0707441210167333</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02597882012125209</v>
+        <v>0.03288990003438324</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1366005342.32518</v>
+        <v>2151413293.769958</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1192569502674664</v>
+        <v>0.1138506144491496</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03912198795915121</v>
+        <v>0.02997762643611512</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2097819134.231047</v>
+        <v>2174385605.447604</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1189165994400144</v>
+        <v>0.1807054937790482</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03141572307795632</v>
+        <v>0.02602647354850758</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,16 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1226565823.151211</v>
+        <v>1705906922.44653</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1031550782306717</v>
+        <v>0.1624680654714877</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03660548115703805</v>
+        <v>0.04900181171849272</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1578,16 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1867204076.814246</v>
+        <v>2581883368.452304</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1156603957415713</v>
+        <v>0.1248585820571204</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02922730314738603</v>
+        <v>0.03197543648776103</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3686252045.13098</v>
+        <v>2700642913.749867</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09496944773455714</v>
+        <v>0.1214339972100668</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03294106513466095</v>
+        <v>0.04500476216813464</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1858821113.734174</v>
+        <v>2847323044.157243</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1846919930791704</v>
+        <v>0.1399274786226757</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02030901381019543</v>
+        <v>0.02112781329028017</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1570115958.555908</v>
+        <v>2186498089.630601</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07134119609613229</v>
+        <v>0.07079837199361491</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02658788212702251</v>
+        <v>0.03172499167991313</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2164819437.06758</v>
+        <v>1625476205.948166</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1209257901664592</v>
+        <v>0.1749973299804798</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03762529742363212</v>
+        <v>0.04939160308287552</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5348699038.492275</v>
+        <v>5160143001.006763</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1187884926347532</v>
+        <v>0.1116033826678441</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05127892972156807</v>
+        <v>0.05014183708861378</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4716534599.651357</v>
+        <v>3502326211.818231</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1807204270035513</v>
+        <v>0.1821083650040712</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05779651075470546</v>
+        <v>0.05447309388809193</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4211930879.506711</v>
+        <v>3670267785.881296</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07597939425757368</v>
+        <v>0.08841859115988757</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02574935678461428</v>
+        <v>0.03409114276418861</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1290147619.439759</v>
+        <v>1572307562.554669</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1708942279409524</v>
+        <v>0.1541087793888838</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0313481908771131</v>
+        <v>0.03592484702360317</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4229519502.882265</v>
+        <v>2909127538.736295</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1497970186660495</v>
+        <v>0.1726828875706331</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03281706145902334</v>
+        <v>0.0437112391629323</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1505031481.755513</v>
+        <v>1083435734.909574</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1629043200900346</v>
+        <v>0.1706174589010896</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04968891854482081</v>
+        <v>0.05090552906365632</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3789687141.460304</v>
+        <v>4854130868.041649</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1171274980054415</v>
+        <v>0.1026314091168551</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04684976105043265</v>
+        <v>0.04023154564291855</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3003430875.031372</v>
+        <v>2999451883.253717</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1522942791591633</v>
+        <v>0.1256294174175847</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02890106543493616</v>
+        <v>0.03097541124634946</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3775867127.115155</v>
+        <v>3275423378.24199</v>
       </c>
       <c r="F54" t="n">
-        <v>0.169068672169084</v>
+        <v>0.1267686677278524</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05291232300425759</v>
+        <v>0.04337284311783277</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3534311729.560406</v>
+        <v>4513690873.004297</v>
       </c>
       <c r="F55" t="n">
-        <v>0.200352377213908</v>
+        <v>0.1941810077531383</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03000269061957748</v>
+        <v>0.02463700328514484</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1546995038.005928</v>
+        <v>1233088501.030021</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1347627681394177</v>
+        <v>0.1627892854690302</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04633229235299592</v>
+        <v>0.05721664517288835</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3992832273.304698</v>
+        <v>3333038514.918119</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1178090996490095</v>
+        <v>0.1354626782136442</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01992815194782032</v>
+        <v>0.02762940478905708</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1783375251.863097</v>
+        <v>1825306771.21698</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1242597980140411</v>
+        <v>0.171192377422958</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0358546054115346</v>
+        <v>0.03332351736113745</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3907760629.546554</v>
+        <v>4228639753.6147</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1268042251435943</v>
+        <v>0.1281602404642536</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03441341169303456</v>
+        <v>0.03362592858621109</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3582712546.154111</v>
+        <v>3790744315.204849</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1575640270404014</v>
+        <v>0.1361264320671873</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02383155291226785</v>
+        <v>0.02239745925145498</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3120871181.695073</v>
+        <v>3270001258.994154</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1233909135804571</v>
+        <v>0.1468377167650858</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02739108777922673</v>
+        <v>0.03214154893754875</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2116861490.709931</v>
+        <v>2072367959.465604</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1920309935855668</v>
+        <v>0.1682650210159875</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04264888798622624</v>
+        <v>0.04080135545901274</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4880205032.949093</v>
+        <v>4135402985.651084</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06536243569099902</v>
+        <v>0.09083405660258302</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04664868936050139</v>
+        <v>0.03195467273741991</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4877957435.208295</v>
+        <v>5084604117.564224</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1609178475648405</v>
+        <v>0.1482661756543084</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03003279919730562</v>
+        <v>0.0224204690605459</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5873653824.538377</v>
+        <v>5155013225.790564</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1593370926425658</v>
+        <v>0.1560947232134453</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02725834787203188</v>
+        <v>0.03004176231417531</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5176864527.629259</v>
+        <v>5224214947.195247</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1269655596722132</v>
+        <v>0.1329510043043877</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03547515531798246</v>
+        <v>0.04369869903687821</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2867954323.465279</v>
+        <v>2601320317.433142</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06530629244128593</v>
+        <v>0.06697282827528019</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04475246815735277</v>
+        <v>0.03410043545180771</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6044500188.729531</v>
+        <v>3846498668.287475</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1113251257877377</v>
+        <v>0.1142477849524439</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03962991883395421</v>
+        <v>0.04582569650242332</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1867804340.094423</v>
+        <v>2398638640.63961</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1518381529267616</v>
+        <v>0.1154953084480006</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05059260886053158</v>
+        <v>0.05055541849894112</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3136627507.505329</v>
+        <v>2712791721.842402</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07206604646947463</v>
+        <v>0.0998189393118597</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04239191849924239</v>
+        <v>0.04307729976499866</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4848567378.559437</v>
+        <v>5029516475.453471</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1586360702130868</v>
+        <v>0.1410973459142869</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02632671278822061</v>
+        <v>0.02356339606171718</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2072129999.657433</v>
+        <v>2049542385.438324</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08513549683837902</v>
+        <v>0.0870293769247279</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04372064472053986</v>
+        <v>0.03930041408431664</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3185929064.080582</v>
+        <v>3057411278.092959</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1006013302635952</v>
+        <v>0.08950269386546875</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0498519362099673</v>
+        <v>0.04285025382009772</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2565891216.418115</v>
+        <v>3963194753.900693</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1572137218178564</v>
+        <v>0.1640743056968302</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0225532145628793</v>
+        <v>0.03502747317756134</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2130997596.578487</v>
+        <v>2089842506.929698</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1126872534371466</v>
+        <v>0.1308356154718443</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0238541294820293</v>
+        <v>0.03398216978873434</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4450717285.421549</v>
+        <v>5355838693.215899</v>
       </c>
       <c r="F76" t="n">
-        <v>0.125165347390467</v>
+        <v>0.1034634022801506</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02918854979777863</v>
+        <v>0.02316452545956275</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2281502703.847071</v>
+        <v>1836952120.374455</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1704899795059096</v>
+        <v>0.1259906216742182</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01970913628546953</v>
+        <v>0.02697477363589476</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3262979560.055313</v>
+        <v>4094384044.080133</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1367247317774249</v>
+        <v>0.1216377329699963</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03761392555646318</v>
+        <v>0.04752445056417551</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1794959063.414796</v>
+        <v>1533565313.174866</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1696981752686108</v>
+        <v>0.1333954353530738</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02715353461773767</v>
+        <v>0.03026960785523035</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5370425636.355165</v>
+        <v>4662537775.425265</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07706042198992939</v>
+        <v>0.1108827661882818</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02351824556913258</v>
+        <v>0.03502022354705187</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4728106951.286298</v>
+        <v>4262776053.78404</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1302474406670547</v>
+        <v>0.1001211064837493</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02063197992219428</v>
+        <v>0.02426955629190554</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3848127460.092597</v>
+        <v>4744197051.908923</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1638118229445257</v>
+        <v>0.1502828795674547</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02471054648742238</v>
+        <v>0.02864077542574105</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1968907908.278723</v>
+        <v>2448951415.987322</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1372964285530166</v>
+        <v>0.1366162917891434</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03355323303606361</v>
+        <v>0.04198887224618982</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1706955875.632136</v>
+        <v>2566283782.818215</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1053459109557971</v>
+        <v>0.09213117255709885</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04577512921331619</v>
+        <v>0.04764735953383242</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2597525670.719419</v>
+        <v>2435295757.895115</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1815892605217998</v>
+        <v>0.1618931226610212</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03899589300226249</v>
+        <v>0.05681937862079266</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2000254534.972757</v>
+        <v>2110448594.795703</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1190475335631607</v>
+        <v>0.1351132719824906</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0180219547586139</v>
+        <v>0.01722078415872602</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,16 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1193240570.038873</v>
+        <v>926118679.1419566</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1420409944513925</v>
+        <v>0.1790939223340821</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04027930356570283</v>
+        <v>0.03383191913852577</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3118169403.96934</v>
+        <v>3565576998.141578</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1223720686856532</v>
+        <v>0.1704689075183425</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03619742490039991</v>
+        <v>0.02433559567877974</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2805716968.839369</v>
+        <v>2553142542.364301</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1051736018639944</v>
+        <v>0.1060519276514958</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03670641406324985</v>
+        <v>0.04064212883939857</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2086700899.647794</v>
+        <v>1856633241.357329</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08803312951511533</v>
+        <v>0.1109459126785912</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03403244626844291</v>
+        <v>0.05587224505577435</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2978,16 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1438341443.717291</v>
+        <v>1375056789.660511</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1340625046821015</v>
+        <v>0.1412964543990312</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05660781869232371</v>
+        <v>0.05830970788033709</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2544522243.773737</v>
+        <v>2226789436.670466</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09266082184802796</v>
+        <v>0.09955748510014205</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0297711999858069</v>
+        <v>0.03831047135785418</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3681292265.349681</v>
+        <v>3839849176.436382</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1022409610167159</v>
+        <v>0.1185374111968675</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0346249476558466</v>
+        <v>0.05181720194573082</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1649055969.665716</v>
+        <v>2291174536.249763</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1557812906701405</v>
+        <v>0.163483333144516</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0270651807645937</v>
+        <v>0.03307260678073433</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2454366003.6521</v>
+        <v>2848097163.972239</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09911600334811931</v>
+        <v>0.1080404089134028</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03650084896829904</v>
+        <v>0.04821213347807716</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1715664944.791348</v>
+        <v>2214966171.50085</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1218833013582066</v>
+        <v>0.08882710181218272</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03085086335043783</v>
+        <v>0.04027485722517133</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4144600296.514515</v>
+        <v>4434048241.914606</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1335102854181426</v>
+        <v>0.1344430396119437</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02226027610962135</v>
+        <v>0.02115456561128456</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3409352357.966852</v>
+        <v>3915448776.857979</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08518798551197741</v>
+        <v>0.1143449030095254</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02588160111447145</v>
+        <v>0.02564854187521771</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2227896615.355718</v>
+        <v>3273413599.838078</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1470560331815325</v>
+        <v>0.09644298618063121</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02613064841505644</v>
+        <v>0.03246751528831313</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3326382523.25641</v>
+        <v>4654880405.593369</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1271062618913579</v>
+        <v>0.1391736842295103</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02373401089653778</v>
+        <v>0.02739926809090858</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2724437752.39115</v>
+        <v>3028181755.449103</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1968746339027621</v>
+        <v>0.1685846677848579</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04650365393409535</v>
+        <v>0.05163980371241873</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_249.xlsx
+++ b/output/fit_clients/fit_round_249.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1679775005.444574</v>
+        <v>2225639291.613349</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1096378226503225</v>
+        <v>0.07269499990201324</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03261195074117693</v>
+        <v>0.04261673245703069</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1749112650.656703</v>
+        <v>2608524701.423485</v>
       </c>
       <c r="F3" t="n">
-        <v>0.143566836645233</v>
+        <v>0.1802516128271587</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04860856714309569</v>
+        <v>0.03368911378682243</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5216370573.144773</v>
+        <v>5245919271.332452</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1322425549767428</v>
+        <v>0.1240691795910334</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0248883320317976</v>
+        <v>0.03232831449176524</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>134</v>
+      </c>
+      <c r="J4" t="n">
+        <v>249</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3853299842.151528</v>
+        <v>3306832550.032512</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07983543422985061</v>
+        <v>0.08620104422143736</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03464690254948823</v>
+        <v>0.04043746457318248</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>102</v>
+      </c>
+      <c r="J5" t="n">
+        <v>247</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2272886421.492416</v>
+        <v>2247508400.702843</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1090483704762409</v>
+        <v>0.1110591856293432</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04256968988000391</v>
+        <v>0.05269350348112091</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2197549470.436295</v>
+        <v>2911814117.800529</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07406974932407799</v>
+        <v>0.0830128131865624</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04457277330079152</v>
+        <v>0.04152091294395571</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2633692164.86365</v>
+        <v>2833525868.660347</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1476178252021981</v>
+        <v>0.1541813014009487</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03283653340145012</v>
+        <v>0.02321450679351651</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>68</v>
+      </c>
+      <c r="J8" t="n">
+        <v>244</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1508727682.144578</v>
+        <v>1698453579.912126</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1721760063159501</v>
+        <v>0.1488922877293455</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02890619874830793</v>
+        <v>0.03304577419733332</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +775,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4087967503.127792</v>
+        <v>4547549635.020136</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2158993554227128</v>
+        <v>0.1677480346123057</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03329474800646003</v>
+        <v>0.04646481709526853</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>226</v>
+      </c>
+      <c r="J10" t="n">
+        <v>249</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +810,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2788520827.679725</v>
+        <v>3928857292.121984</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1244262590391382</v>
+        <v>0.119517105189478</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0363641689159153</v>
+        <v>0.04172170473657075</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>102</v>
+      </c>
+      <c r="J11" t="n">
+        <v>249</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +845,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2308737924.248044</v>
+        <v>2778363765.200273</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1204893027541385</v>
+        <v>0.1931763777706889</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04626506747522426</v>
+        <v>0.05311485860578976</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +880,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3362212607.711579</v>
+        <v>4512849278.156096</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09907737445276406</v>
+        <v>0.08296449937582501</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02441334163221315</v>
+        <v>0.02605417296283716</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>126</v>
+      </c>
+      <c r="J13" t="n">
+        <v>249</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +915,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3570955758.625482</v>
+        <v>2980573804.461192</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1578146172345221</v>
+        <v>0.134588006046693</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03300089951821476</v>
+        <v>0.03400077598892796</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>49</v>
+      </c>
+      <c r="J14" t="n">
+        <v>248</v>
+      </c>
+      <c r="K14" t="n">
+        <v>62.16965227002337</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +952,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1118896411.396022</v>
+        <v>1556574597.438616</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1012750918339326</v>
+        <v>0.1019674620866356</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04013683254542831</v>
+        <v>0.03293640120703022</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +993,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1915531527.704364</v>
+        <v>2369175452.661363</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08777697018634827</v>
+        <v>0.09355976295916728</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04181727015920268</v>
+        <v>0.04390798658773405</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1022,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3570731911.214255</v>
+        <v>3564689801.718587</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1267299425059423</v>
+        <v>0.1642126511931463</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05243938667115448</v>
+        <v>0.05104835281148632</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>120</v>
+      </c>
+      <c r="J17" t="n">
+        <v>248</v>
+      </c>
+      <c r="K17" t="n">
+        <v>76.20359846007581</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1059,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3467718586.311888</v>
+        <v>3298065326.845459</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1127076836767781</v>
+        <v>0.1266424434981168</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02156194000426458</v>
+        <v>0.03320112144194069</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>62</v>
+      </c>
+      <c r="J18" t="n">
+        <v>246</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1100,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1331196698.579915</v>
+        <v>1147202937.053647</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1676494103765854</v>
+        <v>0.1799999412307479</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0174572368926314</v>
+        <v>0.02536521292196856</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1135,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2177620246.466553</v>
+        <v>2106568260.400589</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1259551979488794</v>
+        <v>0.1616824878817179</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02356240763458706</v>
+        <v>0.01987331051222931</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1170,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2628264917.118662</v>
+        <v>2086992265.403178</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07092048779189848</v>
+        <v>0.08961821675934717</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03353538697617677</v>
+        <v>0.02950863974166167</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1199,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4001040288.163956</v>
+        <v>2447719758.695387</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1128335894434545</v>
+        <v>0.1170881553886857</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03928451045446031</v>
+        <v>0.05021626572221973</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>64</v>
+      </c>
+      <c r="J22" t="n">
+        <v>245</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1234,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1428437592.707708</v>
+        <v>1288744982.042273</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1122966347256454</v>
+        <v>0.1190622385176635</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03826725348787331</v>
+        <v>0.04693156974946128</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1275,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3115865565.540451</v>
+        <v>2716080808.738378</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1455761560381299</v>
+        <v>0.1372072669152149</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0316427604254848</v>
+        <v>0.02276355402826628</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>74</v>
+      </c>
+      <c r="J24" t="n">
+        <v>246</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1304,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1369958470.372272</v>
+        <v>1002312137.328949</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09575271810297499</v>
+        <v>0.1186338090561579</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02512192608097113</v>
+        <v>0.02351886632230571</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1339,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1297577380.622905</v>
+        <v>1323167797.859247</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09391764902182692</v>
+        <v>0.09186101288577496</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02395965568225616</v>
+        <v>0.03528432067915753</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1374,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3659407720.447683</v>
+        <v>4641286098.425855</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1190672197671671</v>
+        <v>0.1330400348962505</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0184130762950331</v>
+        <v>0.02211190170266823</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>101</v>
+      </c>
+      <c r="J27" t="n">
+        <v>248</v>
+      </c>
+      <c r="K27" t="n">
+        <v>90.97927421496998</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1411,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3585608410.369922</v>
+        <v>2965504360.509005</v>
       </c>
       <c r="F28" t="n">
-        <v>0.118559176712012</v>
+        <v>0.1422458468504094</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03923057995949187</v>
+        <v>0.03549999678832993</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>50</v>
+      </c>
+      <c r="J28" t="n">
+        <v>244</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1446,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3849700559.05852</v>
+        <v>4385826703.111592</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1075381970100137</v>
+        <v>0.1357775532391398</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0301162336633595</v>
+        <v>0.0464203623802312</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>237</v>
+      </c>
+      <c r="J29" t="n">
+        <v>249</v>
+      </c>
+      <c r="K29" t="n">
+        <v>111.3532685009182</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1919049876.632426</v>
+        <v>2114547196.579098</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08954457882522573</v>
+        <v>0.1055541197075415</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0320366146937598</v>
+        <v>0.0324303488299068</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1227639141.512508</v>
+        <v>1257335432.103771</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1031320903424171</v>
+        <v>0.09564408371882421</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04966338111911377</v>
+        <v>0.04196768997854308</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1587017332.116962</v>
+        <v>1877868422.3967</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09813938366158828</v>
+        <v>0.1118186035084936</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0299741973197459</v>
+        <v>0.02962433793315294</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1588,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2254121870.790307</v>
+        <v>2821911617.358204</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2058707265966332</v>
+        <v>0.2081995820685737</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04733251223717636</v>
+        <v>0.05881374386187348</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1623,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1123106973.747286</v>
+        <v>1095204200.104974</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08435289739781818</v>
+        <v>0.09003098986659755</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02366982538649816</v>
+        <v>0.0221846129523384</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1023778562.239924</v>
+        <v>1280794606.80698</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09633062567527709</v>
+        <v>0.08252148614081548</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03108508042685712</v>
+        <v>0.03494617008647828</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2862893846.865174</v>
+        <v>2179459421.741191</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1416309121321267</v>
+        <v>0.1379902893338883</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02618054285064673</v>
+        <v>0.0268727115668668</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1728,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2048312651.791744</v>
+        <v>2775418310.17303</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0707441210167333</v>
+        <v>0.1108329509939348</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03288990003438324</v>
+        <v>0.02788030915333036</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1763,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2151413293.769958</v>
+        <v>1596698552.056282</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1138506144491496</v>
+        <v>0.1096209461128419</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02997762643611512</v>
+        <v>0.02771387563449709</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1804,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2174385605.447604</v>
+        <v>1683921080.51619</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1807054937790482</v>
+        <v>0.1371274292166787</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02602647354850758</v>
+        <v>0.0275846593398898</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1705906922.44653</v>
+        <v>1215775463.550007</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1624680654714877</v>
+        <v>0.1033671216070844</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04900181171849272</v>
+        <v>0.05506050407786499</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1874,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2581883368.452304</v>
+        <v>2264383172.76303</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1248585820571204</v>
+        <v>0.1568267174176264</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03197543648776103</v>
+        <v>0.04689811664265031</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1903,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2700642913.749867</v>
+        <v>3915159394.482331</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1214339972100668</v>
+        <v>0.1069076508234496</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04500476216813464</v>
+        <v>0.04644599255392381</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>103</v>
+      </c>
+      <c r="J42" t="n">
+        <v>249</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1938,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2847323044.157243</v>
+        <v>2816048308.185432</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1399274786226757</v>
+        <v>0.1448117859314538</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02112781329028017</v>
+        <v>0.02409240203589996</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2186498089.630601</v>
+        <v>2042064313.806137</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07079837199361491</v>
+        <v>0.07838198223289555</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03172499167991313</v>
+        <v>0.02615648422024269</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2008,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1625476205.948166</v>
+        <v>2121036662.555244</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1749973299804798</v>
+        <v>0.1653026675653873</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04939160308287552</v>
+        <v>0.04558888819663003</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2049,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5160143001.006763</v>
+        <v>5104791207.743967</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1116033826678441</v>
+        <v>0.1516121209589395</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05014183708861378</v>
+        <v>0.0465625436418124</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>143</v>
+      </c>
+      <c r="J46" t="n">
+        <v>249</v>
+      </c>
+      <c r="K46" t="n">
+        <v>104.3752791542698</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2086,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3502326211.818231</v>
+        <v>3979465451.421383</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1821083650040712</v>
+        <v>0.1768651902774228</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05447309388809193</v>
+        <v>0.03690768437945385</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>112</v>
+      </c>
+      <c r="J47" t="n">
+        <v>248</v>
+      </c>
+      <c r="K47" t="n">
+        <v>85.19801335656929</v>
       </c>
     </row>
     <row r="48">
@@ -1774,17 +2123,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3670267785.881296</v>
+        <v>3407817112.910612</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08841859115988757</v>
+        <v>0.09001891772362197</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03409114276418861</v>
+        <v>0.02976494490119167</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>123</v>
+      </c>
+      <c r="J48" t="n">
+        <v>249</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1572307562.554669</v>
+        <v>1614300960.793911</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1541087793888838</v>
+        <v>0.1536079576072334</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03592484702360317</v>
+        <v>0.02966983741288675</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2193,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2909127538.736295</v>
+        <v>3053620352.627236</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1726828875706331</v>
+        <v>0.141515962132699</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0437112391629323</v>
+        <v>0.05320956602063761</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>81</v>
+      </c>
+      <c r="J50" t="n">
+        <v>247</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1083435734.909574</v>
+        <v>1069204424.02557</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1706174589010896</v>
+        <v>0.152539064193581</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05090552906365632</v>
+        <v>0.03828229892315371</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2257,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4854130868.041649</v>
+        <v>4107532825.755601</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1026314091168551</v>
+        <v>0.1236564752826511</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04023154564291855</v>
+        <v>0.06045498950161988</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>160</v>
+      </c>
+      <c r="J52" t="n">
+        <v>249</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2292,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2999451883.253717</v>
+        <v>2868201097.512935</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1256294174175847</v>
+        <v>0.1431743745447403</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03097541124634946</v>
+        <v>0.0224222125049192</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>33</v>
+      </c>
+      <c r="J53" t="n">
+        <v>234</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2333,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3275423378.24199</v>
+        <v>4487044827.924544</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1267686677278524</v>
+        <v>0.12064418591269</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04337284311783277</v>
+        <v>0.03340926512180097</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>131</v>
+      </c>
+      <c r="J54" t="n">
+        <v>249</v>
+      </c>
+      <c r="K54" t="n">
+        <v>104.3543944214488</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2364,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4513690873.004297</v>
+        <v>4829718036.974628</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1941810077531383</v>
+        <v>0.1415819273047984</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02463700328514484</v>
+        <v>0.02530554114738257</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>111</v>
+      </c>
+      <c r="J55" t="n">
+        <v>249</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2399,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1233088501.030021</v>
+        <v>1488207482.826275</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1627892854690302</v>
+        <v>0.1331865598033533</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05721664517288835</v>
+        <v>0.05775526390316617</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2434,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3333038514.918119</v>
+        <v>3324100612.553561</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1354626782136442</v>
+        <v>0.1311352631443997</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02762940478905708</v>
+        <v>0.020062258086472</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>98</v>
+      </c>
+      <c r="J57" t="n">
+        <v>247</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2469,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1825306771.21698</v>
+        <v>1846169586.769668</v>
       </c>
       <c r="F58" t="n">
-        <v>0.171192377422958</v>
+        <v>0.1850897102957929</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03332351736113745</v>
+        <v>0.03965678780860475</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2504,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4228639753.6147</v>
+        <v>4495556350.113272</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1281602404642536</v>
+        <v>0.08879840311488674</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03362592858621109</v>
+        <v>0.04764087133935949</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>120</v>
+      </c>
+      <c r="J59" t="n">
+        <v>249</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2539,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3790744315.204849</v>
+        <v>2715478231.830815</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1361264320671873</v>
+        <v>0.1883985403002746</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02239745925145498</v>
+        <v>0.03220619726380748</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>37</v>
+      </c>
+      <c r="J60" t="n">
+        <v>248</v>
+      </c>
+      <c r="K60" t="n">
+        <v>52.59772750247924</v>
       </c>
     </row>
     <row r="61">
@@ -2138,17 +2582,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3270001258.994154</v>
+        <v>3333902529.447082</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1468377167650858</v>
+        <v>0.1113682445535227</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03214154893754875</v>
+        <v>0.02815963008115416</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>249</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2611,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2072367959.465604</v>
+        <v>1408057599.475688</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1682650210159875</v>
+        <v>0.1572003573913423</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04080135545901274</v>
+        <v>0.0435655579571254</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2646,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4135402985.651084</v>
+        <v>4618672910.373651</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09083405660258302</v>
+        <v>0.1072777832906094</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03195467273741991</v>
+        <v>0.04474632145116644</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>121</v>
+      </c>
+      <c r="J63" t="n">
+        <v>249</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2681,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5084604117.564224</v>
+        <v>4815422682.535595</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1482661756543084</v>
+        <v>0.1385857915977211</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0224204690605459</v>
+        <v>0.03537530952888497</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>123</v>
+      </c>
+      <c r="J64" t="n">
+        <v>248</v>
+      </c>
+      <c r="K64" t="n">
+        <v>98.89933938870641</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2718,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5155013225.790564</v>
+        <v>4220699172.965714</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1560947232134453</v>
+        <v>0.1446286774791418</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03004176231417531</v>
+        <v>0.02090720290015773</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>199</v>
+      </c>
+      <c r="J65" t="n">
+        <v>249</v>
+      </c>
+      <c r="K65" t="n">
+        <v>104.8293938534151</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2755,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5224214947.195247</v>
+        <v>4952666172.820003</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1329510043043877</v>
+        <v>0.1144671792628121</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04369869903687821</v>
+        <v>0.04930134025859225</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>123</v>
+      </c>
+      <c r="J66" t="n">
+        <v>248</v>
+      </c>
+      <c r="K66" t="n">
+        <v>92.03506539466829</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2792,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2601320317.433142</v>
+        <v>2456287393.677508</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06697282827528019</v>
+        <v>0.06654401642101793</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03410043545180771</v>
+        <v>0.03358637545037206</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>6</v>
+      </c>
+      <c r="J67" t="n">
+        <v>243</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2827,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3846498668.287475</v>
+        <v>3721586440.76346</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1142477849524439</v>
+        <v>0.1496541919136656</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04582569650242332</v>
+        <v>0.03437171585505799</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>127</v>
+      </c>
+      <c r="J68" t="n">
+        <v>248</v>
+      </c>
+      <c r="K68" t="n">
+        <v>89.23130144265386</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2398638640.63961</v>
+        <v>1957500231.102423</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1154953084480006</v>
+        <v>0.1440170024918005</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05055541849894112</v>
+        <v>0.04435810567202373</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2905,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2712791721.842402</v>
+        <v>3080817966.289968</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0998189393118597</v>
+        <v>0.07499243744513663</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04307729976499866</v>
+        <v>0.04726555444118855</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>39</v>
+      </c>
+      <c r="J70" t="n">
+        <v>243</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2934,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5029516475.453471</v>
+        <v>5378727635.309751</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1410973459142869</v>
+        <v>0.1136136617474568</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02356339606171718</v>
+        <v>0.0317536911309796</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>187</v>
+      </c>
+      <c r="J71" t="n">
+        <v>249</v>
+      </c>
+      <c r="K71" t="n">
+        <v>104.7269989803558</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2049542385.438324</v>
+        <v>2255212212.803705</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0870293769247279</v>
+        <v>0.08354446024245897</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03930041408431664</v>
+        <v>0.03791574036339601</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3006,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3057411278.092959</v>
+        <v>3177124736.017207</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08950269386546875</v>
+        <v>0.1005914549545867</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04285025382009772</v>
+        <v>0.03377618149180654</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>15</v>
+      </c>
+      <c r="J73" t="n">
+        <v>248</v>
+      </c>
+      <c r="K73" t="n">
+        <v>79.28831981797683</v>
       </c>
     </row>
     <row r="74">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3963194753.900693</v>
+        <v>3421747349.457123</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1640743056968302</v>
+        <v>0.1516375877429943</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03502747317756134</v>
+        <v>0.02283663051634059</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>70</v>
+      </c>
+      <c r="J74" t="n">
+        <v>249</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2089842506.929698</v>
+        <v>2499316731.341663</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1308356154718443</v>
+        <v>0.1142847710209969</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03398216978873434</v>
+        <v>0.03219204606920947</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3113,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5355838693.215899</v>
+        <v>4001474580.626313</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1034634022801506</v>
+        <v>0.1048295763086015</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02316452545956275</v>
+        <v>0.02689796243863523</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>116</v>
+      </c>
+      <c r="J76" t="n">
+        <v>248</v>
+      </c>
+      <c r="K76" t="n">
+        <v>92.3901235920074</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1836952120.374455</v>
+        <v>1479893603.29047</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1259906216742182</v>
+        <v>0.1850968526840441</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02697477363589476</v>
+        <v>0.02768818828618622</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4094384044.080133</v>
+        <v>3897242746.471043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1216377329699963</v>
+        <v>0.09548015871494479</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04752445056417551</v>
+        <v>0.04019676838334568</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>124</v>
+      </c>
+      <c r="J78" t="n">
+        <v>248</v>
+      </c>
+      <c r="K78" t="n">
+        <v>99.54534446461675</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1533565313.174866</v>
+        <v>1442746783.88737</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1333954353530738</v>
+        <v>0.1685982077757368</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03026960785523035</v>
+        <v>0.02981288785738394</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4662537775.425265</v>
+        <v>3890004473.188723</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1108827661882818</v>
+        <v>0.08690191119468298</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03502022354705187</v>
+        <v>0.02701568270674382</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>121</v>
+      </c>
+      <c r="J80" t="n">
+        <v>249</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3298,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4262776053.78404</v>
+        <v>3894167328.064885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1001211064837493</v>
+        <v>0.1008848174121011</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02426955629190554</v>
+        <v>0.02218351899369349</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>114</v>
+      </c>
+      <c r="J81" t="n">
+        <v>249</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4744197051.908923</v>
+        <v>4669758348.945396</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1502828795674547</v>
+        <v>0.1608363590656652</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02864077542574105</v>
+        <v>0.02275055887750394</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>189</v>
+      </c>
+      <c r="J82" t="n">
+        <v>248</v>
+      </c>
+      <c r="K82" t="n">
+        <v>103.6762967306426</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2448951415.987322</v>
+        <v>1967119923.154947</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1366162917891434</v>
+        <v>0.1095021091185624</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04198887224618982</v>
+        <v>0.04008808709232227</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2566283782.818215</v>
+        <v>1664374773.617901</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09213117255709885</v>
+        <v>0.1024837357184811</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04764735953383242</v>
+        <v>0.05168116858236756</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3434,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2435295757.895115</v>
+        <v>2617723355.763228</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1618931226610212</v>
+        <v>0.1164117063531982</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05681937862079266</v>
+        <v>0.0465109424328348</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>35</v>
+      </c>
+      <c r="J85" t="n">
+        <v>248</v>
+      </c>
+      <c r="K85" t="n">
+        <v>51.3284754622502</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2110448594.795703</v>
+        <v>2333105411.272264</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1351132719824906</v>
+        <v>0.110316340091624</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01722078415872602</v>
+        <v>0.02072029896392543</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>926118679.1419566</v>
+        <v>1469003686.262402</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1790939223340821</v>
+        <v>0.1655220049462758</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03383191913852577</v>
+        <v>0.03854633272153107</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3565576998.141578</v>
+        <v>2885496265.070073</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1704689075183425</v>
+        <v>0.10855202011368</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02433559567877974</v>
+        <v>0.0270064751845915</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>36</v>
+      </c>
+      <c r="J88" t="n">
+        <v>247</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,16 +3582,25 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2553142542.364301</v>
+        <v>2204827996.741765</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1060519276514958</v>
+        <v>0.1311278069732949</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04064212883939857</v>
+        <v>0.03021181741285899</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>19</v>
+      </c>
+      <c r="J89" t="n">
+        <v>248</v>
+      </c>
+      <c r="K89" t="n">
+        <v>36.506460332338</v>
       </c>
     </row>
     <row r="90">
@@ -2950,17 +3619,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1856633241.357329</v>
+        <v>1425720984.384879</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1109459126785912</v>
+        <v>0.1065884269936563</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05587224505577435</v>
+        <v>0.03869585413353472</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1375056789.660511</v>
+        <v>1825561428.092356</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1412964543990312</v>
+        <v>0.133333151132461</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05830970788033709</v>
+        <v>0.04702265723883284</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2226789436.670466</v>
+        <v>2621270919.265738</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09955748510014205</v>
+        <v>0.08773726253447341</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03831047135785418</v>
+        <v>0.03258965653231682</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3839849176.436382</v>
+        <v>3066932671.869076</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1185374111968675</v>
+        <v>0.1133470722799707</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05181720194573082</v>
+        <v>0.04704113914087413</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>110</v>
+      </c>
+      <c r="J93" t="n">
+        <v>246</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2291174536.249763</v>
+        <v>2402092859.294785</v>
       </c>
       <c r="F94" t="n">
-        <v>0.163483333144516</v>
+        <v>0.1122226704309466</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03307260678073433</v>
+        <v>0.04021329428158436</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2848097163.972239</v>
+        <v>2478286529.749953</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1080404089134028</v>
+        <v>0.1096072604724355</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04821213347807716</v>
+        <v>0.04467927491280359</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2214966171.50085</v>
+        <v>2207776441.679774</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08882710181218272</v>
+        <v>0.1143080360026695</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04027485722517133</v>
+        <v>0.03369853406015082</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4434048241.914606</v>
+        <v>3422103477.071605</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1344430396119437</v>
+        <v>0.1713409410472775</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02115456561128456</v>
+        <v>0.02714472444610581</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>121</v>
+      </c>
+      <c r="J97" t="n">
+        <v>249</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3915448776.857979</v>
+        <v>2885850171.87274</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1143449030095254</v>
+        <v>0.08771679841384017</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02564854187521771</v>
+        <v>0.02083049187363655</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>61</v>
+      </c>
+      <c r="J98" t="n">
+        <v>247</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3273413599.838078</v>
+        <v>3201176520.48615</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09644298618063121</v>
+        <v>0.1366443910023043</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03246751528831313</v>
+        <v>0.03378612986850908</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4654880405.593369</v>
+        <v>2995378524.623414</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1391736842295103</v>
+        <v>0.1441550622185882</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02739926809090858</v>
+        <v>0.02178253639990695</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>104</v>
+      </c>
+      <c r="J100" t="n">
+        <v>248</v>
+      </c>
+      <c r="K100" t="n">
+        <v>57.93450713487782</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3028181755.449103</v>
+        <v>2313541899.403172</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1685846677848579</v>
+        <v>0.1738339732154903</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05163980371241873</v>
+        <v>0.04089123083250174</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
